--- a/Visión del Producto/Copia de Cronograma de un proyecto.xlsx
+++ b/Visión del Producto/Copia de Cronograma de un proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\Visión del Producto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968A3FB-C9DC-4289-A01F-25A6B044CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E96E77-8AC0-4096-98A7-B26E866E7543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,43 +123,13 @@
     <t>Definición y planificación del proyecto</t>
   </si>
   <si>
-    <t>- Diagrama de Gantt</t>
-  </si>
-  <si>
     <t>- Plan de comunicación</t>
-  </si>
-  <si>
-    <t>- Gestión de riesgos</t>
   </si>
   <si>
     <t>Lanzamiento y ejecución del proyecto</t>
   </si>
   <si>
-    <t>- Estado y seguimiento</t>
-  </si>
-  <si>
-    <t>- Indicadores clave de rendimiento</t>
-  </si>
-  <si>
-    <t>- Calidad</t>
-  </si>
-  <si>
-    <t>- Previsiones</t>
-  </si>
-  <si>
     <t>Rendimiento y control del proyecto</t>
-  </si>
-  <si>
-    <t>- Ejecución de objetivos</t>
-  </si>
-  <si>
-    <t>- Entregas de calidad</t>
-  </si>
-  <si>
-    <t>- Seguimiento de costes y esfuerzos</t>
-  </si>
-  <si>
-    <t>- Rendimiento</t>
   </si>
   <si>
     <t>Cierre del proyecto</t>
@@ -264,6 +234,36 @@
   </si>
   <si>
     <t>Determinar medios y permisos para el acceso a información de clientes</t>
+  </si>
+  <si>
+    <t>Establecer tiempos determinados para la entrega de información por parte del cliente</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Pre evaluación de antecedentes económicos</t>
+  </si>
+  <si>
+    <t>Entrega de antecedentes a banca</t>
+  </si>
+  <si>
+    <t>Respuesta de banca</t>
+  </si>
+  <si>
+    <t>Informe resolutivo por parte de la banca</t>
+  </si>
+  <si>
+    <t>Emntrega de resolución a cliente</t>
+  </si>
+  <si>
+    <t>Evaluación de calidad del servicio</t>
+  </si>
+  <si>
+    <t>Seguimiento de costes y esfuerzos</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
       <name val="Corbel"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -643,44 +637,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF0B5394"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1838,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2516,91 +2498,73 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2611,69 +2575,45 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2684,6 +2624,37 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3005,8 +2976,8 @@
   </sheetPr>
   <dimension ref="A1:BR36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -3097,43 +3068,43 @@
     </row>
     <row r="2" spans="1:70" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="272" t="s">
+      <c r="B2" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="274" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="275" t="s">
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
@@ -3253,35 +3224,35 @@
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="267" t="s">
+      <c r="I4" s="272" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="276" t="s">
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="268"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="268"/>
-      <c r="X4" s="268"/>
-      <c r="Y4" s="268"/>
-      <c r="Z4" s="268"/>
-      <c r="AA4" s="268"/>
-      <c r="AB4" s="268"/>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
       <c r="AC4" s="19"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -3338,29 +3309,29 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="268"/>
-      <c r="K5" s="268"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="268"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="269">
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="275">
         <v>44405</v>
       </c>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
       <c r="AB5" s="22"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="1"/>
@@ -3562,74 +3533,74 @@
         <v>10</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="264" t="s">
+      <c r="I8" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="255"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="264" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
+      <c r="W8" s="285"/>
+      <c r="X8" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="255"/>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="255"/>
-      <c r="AI8" s="255"/>
-      <c r="AJ8" s="255"/>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="264" t="s">
+      <c r="Y8" s="241"/>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
+      <c r="AD8" s="241"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="241"/>
+      <c r="AJ8" s="241"/>
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="285"/>
+      <c r="AM8" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="AN8" s="255"/>
-      <c r="AO8" s="255"/>
-      <c r="AP8" s="255"/>
-      <c r="AQ8" s="255"/>
-      <c r="AR8" s="255"/>
-      <c r="AS8" s="255"/>
-      <c r="AT8" s="255"/>
-      <c r="AU8" s="255"/>
-      <c r="AV8" s="255"/>
-      <c r="AW8" s="255"/>
-      <c r="AX8" s="255"/>
-      <c r="AY8" s="255"/>
-      <c r="AZ8" s="255"/>
-      <c r="BA8" s="265"/>
-      <c r="BB8" s="264" t="s">
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="241"/>
+      <c r="AQ8" s="241"/>
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="241"/>
+      <c r="AT8" s="241"/>
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="241"/>
+      <c r="AX8" s="241"/>
+      <c r="AY8" s="241"/>
+      <c r="AZ8" s="241"/>
+      <c r="BA8" s="285"/>
+      <c r="BB8" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="BC8" s="255"/>
-      <c r="BD8" s="255"/>
-      <c r="BE8" s="255"/>
-      <c r="BF8" s="255"/>
-      <c r="BG8" s="255"/>
-      <c r="BH8" s="255"/>
-      <c r="BI8" s="255"/>
-      <c r="BJ8" s="255"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="255"/>
-      <c r="BM8" s="255"/>
-      <c r="BN8" s="255"/>
-      <c r="BO8" s="255"/>
-      <c r="BP8" s="265"/>
+      <c r="BC8" s="241"/>
+      <c r="BD8" s="241"/>
+      <c r="BE8" s="241"/>
+      <c r="BF8" s="241"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="241"/>
+      <c r="BI8" s="241"/>
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="241"/>
+      <c r="BL8" s="241"/>
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="241"/>
+      <c r="BO8" s="241"/>
+      <c r="BP8" s="285"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24"/>
     </row>
@@ -3642,90 +3613,90 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="266" t="s">
+      <c r="I9" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260"/>
-      <c r="L9" s="260"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="259" t="s">
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="260"/>
-      <c r="P9" s="260"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="261" t="s">
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263" t="s">
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="261" t="s">
+      <c r="Y9" s="277"/>
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="283" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="260"/>
-      <c r="AE9" s="260"/>
-      <c r="AF9" s="260"/>
-      <c r="AG9" s="260"/>
-      <c r="AH9" s="259" t="s">
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="AI9" s="260"/>
-      <c r="AJ9" s="260"/>
-      <c r="AK9" s="260"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="266" t="s">
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="277"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="278"/>
+      <c r="AM9" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="260"/>
-      <c r="AO9" s="260"/>
-      <c r="AP9" s="260"/>
-      <c r="AQ9" s="260"/>
-      <c r="AR9" s="259" t="s">
+      <c r="AN9" s="277"/>
+      <c r="AO9" s="277"/>
+      <c r="AP9" s="277"/>
+      <c r="AQ9" s="277"/>
+      <c r="AR9" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="AS9" s="260"/>
-      <c r="AT9" s="260"/>
-      <c r="AU9" s="260"/>
-      <c r="AV9" s="260"/>
-      <c r="AW9" s="261" t="s">
+      <c r="AS9" s="277"/>
+      <c r="AT9" s="277"/>
+      <c r="AU9" s="277"/>
+      <c r="AV9" s="277"/>
+      <c r="AW9" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="260"/>
-      <c r="AY9" s="260"/>
-      <c r="AZ9" s="260"/>
-      <c r="BA9" s="262"/>
-      <c r="BB9" s="263" t="s">
+      <c r="AX9" s="277"/>
+      <c r="AY9" s="277"/>
+      <c r="AZ9" s="277"/>
+      <c r="BA9" s="278"/>
+      <c r="BB9" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="BC9" s="260"/>
-      <c r="BD9" s="260"/>
-      <c r="BE9" s="260"/>
-      <c r="BF9" s="260"/>
-      <c r="BG9" s="261" t="s">
+      <c r="BC9" s="277"/>
+      <c r="BD9" s="277"/>
+      <c r="BE9" s="277"/>
+      <c r="BF9" s="277"/>
+      <c r="BG9" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="260"/>
-      <c r="BI9" s="260"/>
-      <c r="BJ9" s="260"/>
-      <c r="BK9" s="260"/>
-      <c r="BL9" s="259" t="s">
+      <c r="BH9" s="277"/>
+      <c r="BI9" s="277"/>
+      <c r="BJ9" s="277"/>
+      <c r="BK9" s="277"/>
+      <c r="BL9" s="276" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="260"/>
-      <c r="BN9" s="260"/>
-      <c r="BO9" s="260"/>
-      <c r="BP9" s="262"/>
+      <c r="BM9" s="277"/>
+      <c r="BN9" s="277"/>
+      <c r="BO9" s="277"/>
+      <c r="BP9" s="278"/>
       <c r="BQ9" s="30"/>
       <c r="BR9" s="30"/>
     </row>
@@ -3733,15 +3704,15 @@
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="301" t="s">
+      <c r="D10" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="241"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="302" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="255"/>
+      <c r="G10" s="242" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="241"/>
       <c r="I10" s="37">
         <v>5</v>
       </c>
@@ -3833,21 +3804,21 @@
     </row>
     <row r="11" spans="1:70" ht="21" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="290">
+      <c r="B11" s="299">
         <v>1</v>
       </c>
       <c r="C11" s="45"/>
-      <c r="D11" s="292" t="s">
+      <c r="D11" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="300" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="258"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="254" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="245"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="252"/>
+      <c r="J11" s="301"/>
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
@@ -3880,7 +3851,7 @@
       <c r="AN11" s="51"/>
       <c r="AO11" s="51"/>
       <c r="AP11" s="52"/>
-      <c r="AQ11" s="270" t="s">
+      <c r="AQ11" s="280" t="s">
         <v>30</v>
       </c>
       <c r="AR11" s="53"/>
@@ -3913,18 +3884,18 @@
     </row>
     <row r="12" spans="1:70" ht="21" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="255"/>
+      <c r="B12" s="300"/>
       <c r="C12" s="45"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="300" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="258"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="254" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="245"/>
       <c r="I12" s="57"/>
       <c r="J12" s="58"/>
-      <c r="K12" s="252"/>
+      <c r="K12" s="301"/>
       <c r="L12" s="59"/>
       <c r="M12" s="59"/>
       <c r="N12" s="59"/>
@@ -3956,7 +3927,7 @@
       <c r="AN12" s="59"/>
       <c r="AO12" s="59"/>
       <c r="AP12" s="62"/>
-      <c r="AQ12" s="271"/>
+      <c r="AQ12" s="281"/>
       <c r="AR12" s="63"/>
       <c r="AS12" s="63"/>
       <c r="AT12" s="63"/>
@@ -3987,19 +3958,19 @@
     </row>
     <row r="13" spans="1:70" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="255"/>
+      <c r="B13" s="300"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="294" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="295"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="248" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="249"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
       <c r="K13" s="70"/>
-      <c r="L13" s="253"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="71"/>
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
@@ -4030,7 +4001,7 @@
       <c r="AN13" s="71"/>
       <c r="AO13" s="71"/>
       <c r="AP13" s="75"/>
-      <c r="AQ13" s="271"/>
+      <c r="AQ13" s="281"/>
       <c r="AR13" s="76"/>
       <c r="AS13" s="76"/>
       <c r="AT13" s="76"/>
@@ -4061,23 +4032,23 @@
     </row>
     <row r="14" spans="1:70" ht="21" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="284">
+      <c r="B14" s="262">
         <v>2</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="296" t="s">
+      <c r="D14" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="255"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="291" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="258"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="244" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="245"/>
       <c r="I14" s="81"/>
       <c r="J14" s="82"/>
       <c r="K14" s="83"/>
-      <c r="L14" s="239"/>
+      <c r="L14" s="298"/>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
@@ -4108,7 +4079,7 @@
       <c r="AN14" s="83"/>
       <c r="AO14" s="83"/>
       <c r="AP14" s="86"/>
-      <c r="AQ14" s="271"/>
+      <c r="AQ14" s="281"/>
       <c r="AR14" s="87"/>
       <c r="AS14" s="87"/>
       <c r="AT14" s="87"/>
@@ -4139,19 +4110,19 @@
     </row>
     <row r="15" spans="1:70" ht="21" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="255"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="291" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="258"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="245"/>
       <c r="I15" s="91"/>
       <c r="J15" s="92"/>
       <c r="K15" s="93"/>
-      <c r="L15" s="240"/>
+      <c r="L15" s="298"/>
       <c r="M15" s="93"/>
       <c r="N15" s="93"/>
       <c r="O15" s="93"/>
@@ -4182,7 +4153,7 @@
       <c r="AN15" s="93"/>
       <c r="AO15" s="93"/>
       <c r="AP15" s="96"/>
-      <c r="AQ15" s="271"/>
+      <c r="AQ15" s="281"/>
       <c r="AR15" s="97"/>
       <c r="AS15" s="97"/>
       <c r="AT15" s="97"/>
@@ -4213,19 +4184,19 @@
     </row>
     <row r="16" spans="1:70" ht="21" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="255"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="45"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="255"/>
-      <c r="F16" s="255"/>
-      <c r="G16" s="291" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="258"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="244" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="245"/>
       <c r="I16" s="91"/>
       <c r="J16" s="92"/>
       <c r="K16" s="93"/>
-      <c r="L16" s="240"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="93"/>
       <c r="N16" s="93"/>
       <c r="O16" s="93"/>
@@ -4256,7 +4227,7 @@
       <c r="AN16" s="93"/>
       <c r="AO16" s="93"/>
       <c r="AP16" s="96"/>
-      <c r="AQ16" s="271"/>
+      <c r="AQ16" s="281"/>
       <c r="AR16" s="97"/>
       <c r="AS16" s="97"/>
       <c r="AT16" s="97"/>
@@ -4287,19 +4258,19 @@
     </row>
     <row r="17" spans="1:70" ht="21" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="255"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="291" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="258"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="245"/>
       <c r="I17" s="91"/>
       <c r="J17" s="92"/>
       <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
+      <c r="L17" s="298"/>
       <c r="M17" s="93"/>
       <c r="N17" s="93"/>
       <c r="O17" s="93"/>
@@ -4330,7 +4301,7 @@
       <c r="AN17" s="93"/>
       <c r="AO17" s="93"/>
       <c r="AP17" s="96"/>
-      <c r="AQ17" s="271"/>
+      <c r="AQ17" s="281"/>
       <c r="AR17" s="97"/>
       <c r="AS17" s="97"/>
       <c r="AT17" s="97"/>
@@ -4361,19 +4332,19 @@
     </row>
     <row r="18" spans="1:70" ht="21" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="241"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="255"/>
-      <c r="G18" s="291" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="258"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="244" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="245"/>
       <c r="I18" s="100"/>
       <c r="J18" s="101"/>
       <c r="K18" s="102"/>
-      <c r="L18" s="93"/>
+      <c r="L18" s="298"/>
       <c r="M18" s="93"/>
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
@@ -4404,7 +4375,7 @@
       <c r="AN18" s="102"/>
       <c r="AO18" s="102"/>
       <c r="AP18" s="105"/>
-      <c r="AQ18" s="271"/>
+      <c r="AQ18" s="281"/>
       <c r="AR18" s="97"/>
       <c r="AS18" s="97"/>
       <c r="AT18" s="97"/>
@@ -4435,19 +4406,19 @@
     </row>
     <row r="19" spans="1:70" ht="21" customHeight="1" thickBot="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="255"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="298" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="299"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="252" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="253"/>
       <c r="I19" s="107"/>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
+      <c r="L19" s="298"/>
       <c r="M19" s="109"/>
       <c r="N19" s="109"/>
       <c r="O19" s="109"/>
@@ -4478,7 +4449,7 @@
       <c r="AN19" s="109"/>
       <c r="AO19" s="109"/>
       <c r="AP19" s="112"/>
-      <c r="AQ19" s="271"/>
+      <c r="AQ19" s="281"/>
       <c r="AR19" s="113"/>
       <c r="AS19" s="113"/>
       <c r="AT19" s="113"/>
@@ -4509,27 +4480,27 @@
     </row>
     <row r="20" spans="1:70" ht="21" customHeight="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="285">
+      <c r="B20" s="263">
         <v>3</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="277" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="286" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="258"/>
+      <c r="D20" s="255" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="245"/>
       <c r="I20" s="116"/>
       <c r="J20" s="117"/>
       <c r="K20" s="118"/>
       <c r="L20" s="118"/>
       <c r="M20" s="118"/>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241"/>
-      <c r="P20" s="241"/>
+      <c r="N20" s="295"/>
+      <c r="O20" s="295"/>
+      <c r="P20" s="118"/>
       <c r="Q20" s="118"/>
       <c r="R20" s="118"/>
       <c r="S20" s="118"/>
@@ -4556,7 +4527,7 @@
       <c r="AN20" s="118"/>
       <c r="AO20" s="118"/>
       <c r="AP20" s="121"/>
-      <c r="AQ20" s="271"/>
+      <c r="AQ20" s="281"/>
       <c r="AR20" s="122"/>
       <c r="AS20" s="122"/>
       <c r="AT20" s="122"/>
@@ -4587,23 +4558,23 @@
     </row>
     <row r="21" spans="1:70" ht="21" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="255"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="45"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="286" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="258"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="264" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="245"/>
       <c r="I21" s="125"/>
       <c r="J21" s="126"/>
       <c r="K21" s="127"/>
       <c r="L21" s="127"/>
       <c r="M21" s="127"/>
-      <c r="N21" s="242"/>
-      <c r="O21" s="242"/>
-      <c r="P21" s="242"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="296"/>
       <c r="Q21" s="127"/>
       <c r="R21" s="127"/>
       <c r="S21" s="127"/>
@@ -4630,7 +4601,7 @@
       <c r="AN21" s="127"/>
       <c r="AO21" s="127"/>
       <c r="AP21" s="130"/>
-      <c r="AQ21" s="271"/>
+      <c r="AQ21" s="281"/>
       <c r="AR21" s="131"/>
       <c r="AS21" s="131"/>
       <c r="AT21" s="131"/>
@@ -4661,25 +4632,25 @@
     </row>
     <row r="22" spans="1:70" ht="21" customHeight="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="45"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="286" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="258"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="245"/>
       <c r="I22" s="125"/>
       <c r="J22" s="126"/>
       <c r="K22" s="127"/>
       <c r="L22" s="127"/>
       <c r="M22" s="127"/>
-      <c r="N22" s="243"/>
-      <c r="O22" s="243"/>
-      <c r="P22" s="243"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="296"/>
+      <c r="Q22" s="296"/>
+      <c r="R22" s="296"/>
       <c r="S22" s="127"/>
       <c r="T22" s="127"/>
       <c r="U22" s="127"/>
@@ -4704,7 +4675,7 @@
       <c r="AN22" s="127"/>
       <c r="AO22" s="127"/>
       <c r="AP22" s="130"/>
-      <c r="AQ22" s="271"/>
+      <c r="AQ22" s="281"/>
       <c r="AR22" s="131"/>
       <c r="AS22" s="131"/>
       <c r="AT22" s="131"/>
@@ -4733,27 +4704,27 @@
       <c r="BQ22" s="24"/>
       <c r="BR22" s="24"/>
     </row>
-    <row r="23" spans="1:70" ht="21" customHeight="1">
+    <row r="23" spans="1:70" ht="21" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
-      <c r="B23" s="255"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="134"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="278"/>
-      <c r="F23" s="278"/>
-      <c r="G23" s="287" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="288"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="265" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="266"/>
       <c r="I23" s="135"/>
       <c r="J23" s="136"/>
       <c r="K23" s="137"/>
       <c r="L23" s="137"/>
       <c r="M23" s="137"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="244"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="297"/>
+      <c r="R23" s="297"/>
       <c r="S23" s="137"/>
       <c r="T23" s="137"/>
       <c r="U23" s="137"/>
@@ -4778,7 +4749,7 @@
       <c r="AN23" s="137"/>
       <c r="AO23" s="137"/>
       <c r="AP23" s="140"/>
-      <c r="AQ23" s="271"/>
+      <c r="AQ23" s="281"/>
       <c r="AR23" s="141"/>
       <c r="AS23" s="141"/>
       <c r="AT23" s="141"/>
@@ -4809,19 +4780,19 @@
     </row>
     <row r="24" spans="1:70" ht="21" customHeight="1">
       <c r="A24" s="24"/>
-      <c r="B24" s="289">
+      <c r="B24" s="267">
         <v>4</v>
       </c>
       <c r="C24" s="45"/>
-      <c r="D24" s="279" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="281" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="258"/>
+      <c r="D24" s="257" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="259" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="245"/>
       <c r="I24" s="116"/>
       <c r="J24" s="117"/>
       <c r="K24" s="118"/>
@@ -4829,9 +4800,9 @@
       <c r="M24" s="118"/>
       <c r="N24" s="118"/>
       <c r="O24" s="118"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="292"/>
       <c r="S24" s="118"/>
       <c r="T24" s="118"/>
       <c r="U24" s="118"/>
@@ -4856,7 +4827,7 @@
       <c r="AN24" s="118"/>
       <c r="AO24" s="118"/>
       <c r="AP24" s="121"/>
-      <c r="AQ24" s="271"/>
+      <c r="AQ24" s="281"/>
       <c r="AR24" s="122"/>
       <c r="AS24" s="122"/>
       <c r="AT24" s="122"/>
@@ -4887,15 +4858,15 @@
     </row>
     <row r="25" spans="1:70" ht="21" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="255"/>
+      <c r="B25" s="241"/>
       <c r="C25" s="45"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="281" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="258"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="259" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="245"/>
       <c r="I25" s="125"/>
       <c r="J25" s="126"/>
       <c r="K25" s="127"/>
@@ -4903,9 +4874,9 @@
       <c r="M25" s="127"/>
       <c r="N25" s="127"/>
       <c r="O25" s="127"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="239"/>
       <c r="S25" s="127"/>
       <c r="T25" s="127"/>
       <c r="U25" s="127"/>
@@ -4930,7 +4901,7 @@
       <c r="AN25" s="127"/>
       <c r="AO25" s="127"/>
       <c r="AP25" s="130"/>
-      <c r="AQ25" s="271"/>
+      <c r="AQ25" s="281"/>
       <c r="AR25" s="131"/>
       <c r="AS25" s="131"/>
       <c r="AT25" s="131"/>
@@ -4961,15 +4932,15 @@
     </row>
     <row r="26" spans="1:70" ht="21" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="255"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="45"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="281" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="258"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="259" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="245"/>
       <c r="I26" s="125"/>
       <c r="J26" s="126"/>
       <c r="K26" s="127"/>
@@ -4977,9 +4948,9 @@
       <c r="M26" s="127"/>
       <c r="N26" s="127"/>
       <c r="O26" s="127"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="247"/>
-      <c r="R26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="239"/>
       <c r="S26" s="127"/>
       <c r="T26" s="127"/>
       <c r="U26" s="127"/>
@@ -5004,7 +4975,7 @@
       <c r="AN26" s="127"/>
       <c r="AO26" s="127"/>
       <c r="AP26" s="130"/>
-      <c r="AQ26" s="271"/>
+      <c r="AQ26" s="281"/>
       <c r="AR26" s="131"/>
       <c r="AS26" s="131"/>
       <c r="AT26" s="131"/>
@@ -5035,15 +5006,15 @@
     </row>
     <row r="27" spans="1:70" ht="21" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="255"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="144"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="282" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="283"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="260" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="261"/>
       <c r="I27" s="145"/>
       <c r="J27" s="146"/>
       <c r="K27" s="147"/>
@@ -5051,9 +5022,9 @@
       <c r="M27" s="147"/>
       <c r="N27" s="147"/>
       <c r="O27" s="147"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="293"/>
       <c r="S27" s="147"/>
       <c r="T27" s="147"/>
       <c r="U27" s="147"/>
@@ -5078,7 +5049,7 @@
       <c r="AN27" s="147"/>
       <c r="AO27" s="147"/>
       <c r="AP27" s="150"/>
-      <c r="AQ27" s="271"/>
+      <c r="AQ27" s="281"/>
       <c r="AR27" s="151"/>
       <c r="AS27" s="151"/>
       <c r="AT27" s="151"/>
@@ -5109,19 +5080,19 @@
     </row>
     <row r="28" spans="1:70" ht="21" customHeight="1">
       <c r="A28" s="24"/>
-      <c r="B28" s="254">
+      <c r="B28" s="286">
         <v>5</v>
       </c>
       <c r="C28" s="45"/>
-      <c r="D28" s="256" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="255"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="257" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="258"/>
+      <c r="D28" s="287" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="288" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="245"/>
       <c r="I28" s="116"/>
       <c r="J28" s="117"/>
       <c r="K28" s="118"/>
@@ -5131,8 +5102,8 @@
       <c r="O28" s="118"/>
       <c r="P28" s="118"/>
       <c r="Q28" s="118"/>
-      <c r="R28" s="249"/>
-      <c r="S28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="294"/>
       <c r="T28" s="118"/>
       <c r="U28" s="118"/>
       <c r="V28" s="118"/>
@@ -5156,7 +5127,7 @@
       <c r="AN28" s="118"/>
       <c r="AO28" s="118"/>
       <c r="AP28" s="121"/>
-      <c r="AQ28" s="271"/>
+      <c r="AQ28" s="281"/>
       <c r="AR28" s="122"/>
       <c r="AS28" s="122"/>
       <c r="AT28" s="122"/>
@@ -5187,15 +5158,15 @@
     </row>
     <row r="29" spans="1:70" ht="21" customHeight="1">
       <c r="A29" s="24"/>
-      <c r="B29" s="255"/>
+      <c r="B29" s="241"/>
       <c r="C29" s="45"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="257" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="258"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="288" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="245"/>
       <c r="I29" s="125"/>
       <c r="J29" s="126"/>
       <c r="K29" s="127"/>
@@ -5205,8 +5176,8 @@
       <c r="O29" s="127"/>
       <c r="P29" s="127"/>
       <c r="Q29" s="127"/>
-      <c r="R29" s="250"/>
-      <c r="S29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="294"/>
       <c r="T29" s="127"/>
       <c r="U29" s="127"/>
       <c r="V29" s="127"/>
@@ -5230,7 +5201,7 @@
       <c r="AN29" s="127"/>
       <c r="AO29" s="127"/>
       <c r="AP29" s="130"/>
-      <c r="AQ29" s="271"/>
+      <c r="AQ29" s="281"/>
       <c r="AR29" s="131"/>
       <c r="AS29" s="131"/>
       <c r="AT29" s="131"/>
@@ -5261,15 +5232,15 @@
     </row>
     <row r="30" spans="1:70" ht="21" customHeight="1">
       <c r="A30" s="24"/>
-      <c r="B30" s="255"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="45"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="257" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="258"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="288" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="245"/>
       <c r="I30" s="125"/>
       <c r="J30" s="126"/>
       <c r="K30" s="127"/>
@@ -5279,8 +5250,8 @@
       <c r="O30" s="127"/>
       <c r="P30" s="127"/>
       <c r="Q30" s="127"/>
-      <c r="R30" s="251"/>
-      <c r="S30" s="251"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="294"/>
       <c r="T30" s="127"/>
       <c r="U30" s="127"/>
       <c r="V30" s="127"/>
@@ -5304,7 +5275,7 @@
       <c r="AN30" s="127"/>
       <c r="AO30" s="127"/>
       <c r="AP30" s="130"/>
-      <c r="AQ30" s="271"/>
+      <c r="AQ30" s="281"/>
       <c r="AR30" s="131"/>
       <c r="AS30" s="131"/>
       <c r="AT30" s="131"/>
@@ -5767,6 +5738,48 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:F30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AQ11:AQ30"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AF2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="D20:F23"/>
+    <mergeCell ref="D24:F27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="B11:B13"/>
@@ -5781,48 +5794,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D20:F23"/>
-    <mergeCell ref="D24:F27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AF2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AQ11:AQ30"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:F30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5928,43 +5899,43 @@
     </row>
     <row r="2" spans="1:70" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="272" t="s">
+      <c r="B2" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="274" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="275" t="s">
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
@@ -6084,35 +6055,35 @@
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="267" t="s">
+      <c r="I4" s="272" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="276" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="268"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="268"/>
-      <c r="X4" s="268"/>
-      <c r="Y4" s="268"/>
-      <c r="Z4" s="268"/>
-      <c r="AA4" s="268"/>
-      <c r="AB4" s="268"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="274" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
       <c r="AC4" s="19"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -6164,34 +6135,34 @@
       <c r="C5" s="16"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="268"/>
-      <c r="K5" s="268"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="268"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="269">
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="275">
         <v>44390</v>
       </c>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
       <c r="AB5" s="22"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="1"/>
@@ -6393,74 +6364,74 @@
         <v>10</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="264" t="s">
+      <c r="I8" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="255"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="264" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
+      <c r="W8" s="285"/>
+      <c r="X8" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="255"/>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="255"/>
-      <c r="AI8" s="255"/>
-      <c r="AJ8" s="255"/>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="264" t="s">
+      <c r="Y8" s="241"/>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
+      <c r="AD8" s="241"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="241"/>
+      <c r="AJ8" s="241"/>
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="285"/>
+      <c r="AM8" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="AN8" s="255"/>
-      <c r="AO8" s="255"/>
-      <c r="AP8" s="255"/>
-      <c r="AQ8" s="255"/>
-      <c r="AR8" s="255"/>
-      <c r="AS8" s="255"/>
-      <c r="AT8" s="255"/>
-      <c r="AU8" s="255"/>
-      <c r="AV8" s="255"/>
-      <c r="AW8" s="255"/>
-      <c r="AX8" s="255"/>
-      <c r="AY8" s="255"/>
-      <c r="AZ8" s="255"/>
-      <c r="BA8" s="265"/>
-      <c r="BB8" s="264" t="s">
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="241"/>
+      <c r="AQ8" s="241"/>
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="241"/>
+      <c r="AT8" s="241"/>
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="241"/>
+      <c r="AX8" s="241"/>
+      <c r="AY8" s="241"/>
+      <c r="AZ8" s="241"/>
+      <c r="BA8" s="285"/>
+      <c r="BB8" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="BC8" s="255"/>
-      <c r="BD8" s="255"/>
-      <c r="BE8" s="255"/>
-      <c r="BF8" s="255"/>
-      <c r="BG8" s="255"/>
-      <c r="BH8" s="255"/>
-      <c r="BI8" s="255"/>
-      <c r="BJ8" s="255"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="255"/>
-      <c r="BM8" s="255"/>
-      <c r="BN8" s="255"/>
-      <c r="BO8" s="255"/>
-      <c r="BP8" s="265"/>
+      <c r="BC8" s="241"/>
+      <c r="BD8" s="241"/>
+      <c r="BE8" s="241"/>
+      <c r="BF8" s="241"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="241"/>
+      <c r="BI8" s="241"/>
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="241"/>
+      <c r="BL8" s="241"/>
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="241"/>
+      <c r="BO8" s="241"/>
+      <c r="BP8" s="285"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24"/>
     </row>
@@ -6476,81 +6447,81 @@
       <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="259" t="s">
+      <c r="J9" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="260"/>
-      <c r="L9" s="260"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="260"/>
-      <c r="O9" s="261" t="s">
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="277"/>
+      <c r="O9" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="260"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="260"/>
-      <c r="AE9" s="260"/>
-      <c r="AF9" s="260"/>
-      <c r="AG9" s="260"/>
-      <c r="AH9" s="259"/>
-      <c r="AI9" s="260"/>
-      <c r="AJ9" s="260"/>
-      <c r="AK9" s="260"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="266" t="s">
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="278"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="282"/>
+      <c r="Y9" s="277"/>
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="283"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="276"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="277"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="278"/>
+      <c r="AM9" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="260"/>
-      <c r="AO9" s="260"/>
-      <c r="AP9" s="260"/>
-      <c r="AQ9" s="260"/>
-      <c r="AR9" s="259" t="s">
+      <c r="AN9" s="277"/>
+      <c r="AO9" s="277"/>
+      <c r="AP9" s="277"/>
+      <c r="AQ9" s="277"/>
+      <c r="AR9" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="AS9" s="260"/>
-      <c r="AT9" s="260"/>
-      <c r="AU9" s="260"/>
-      <c r="AV9" s="260"/>
-      <c r="AW9" s="261" t="s">
+      <c r="AS9" s="277"/>
+      <c r="AT9" s="277"/>
+      <c r="AU9" s="277"/>
+      <c r="AV9" s="277"/>
+      <c r="AW9" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="260"/>
-      <c r="AY9" s="260"/>
-      <c r="AZ9" s="260"/>
-      <c r="BA9" s="262"/>
-      <c r="BB9" s="263" t="s">
+      <c r="AX9" s="277"/>
+      <c r="AY9" s="277"/>
+      <c r="AZ9" s="277"/>
+      <c r="BA9" s="278"/>
+      <c r="BB9" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="BC9" s="260"/>
-      <c r="BD9" s="260"/>
-      <c r="BE9" s="260"/>
-      <c r="BF9" s="260"/>
-      <c r="BG9" s="261" t="s">
+      <c r="BC9" s="277"/>
+      <c r="BD9" s="277"/>
+      <c r="BE9" s="277"/>
+      <c r="BF9" s="277"/>
+      <c r="BG9" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="260"/>
-      <c r="BI9" s="260"/>
-      <c r="BJ9" s="260"/>
-      <c r="BK9" s="260"/>
-      <c r="BL9" s="259" t="s">
+      <c r="BH9" s="277"/>
+      <c r="BI9" s="277"/>
+      <c r="BJ9" s="277"/>
+      <c r="BK9" s="277"/>
+      <c r="BL9" s="276" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="260"/>
-      <c r="BN9" s="260"/>
-      <c r="BO9" s="260"/>
-      <c r="BP9" s="262"/>
+      <c r="BM9" s="277"/>
+      <c r="BN9" s="277"/>
+      <c r="BO9" s="277"/>
+      <c r="BP9" s="278"/>
       <c r="BQ9" s="30"/>
       <c r="BR9" s="30"/>
     </row>
@@ -6558,15 +6529,15 @@
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="301" t="s">
+      <c r="D10" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="241"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="303" t="s">
+      <c r="G10" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="255"/>
+      <c r="H10" s="241"/>
       <c r="I10" s="37">
         <v>26</v>
       </c>
@@ -6652,19 +6623,19 @@
     </row>
     <row r="11" spans="1:70" ht="21" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="290">
+      <c r="B11" s="243">
         <v>1</v>
       </c>
       <c r="C11" s="45"/>
-      <c r="D11" s="292" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="300" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="258"/>
+      <c r="D11" s="246" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="254" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="245"/>
       <c r="I11" s="162"/>
       <c r="J11" s="163"/>
       <c r="K11" s="58"/>
@@ -6699,7 +6670,7 @@
       <c r="AN11" s="51"/>
       <c r="AO11" s="51"/>
       <c r="AP11" s="52"/>
-      <c r="AQ11" s="270" t="s">
+      <c r="AQ11" s="280" t="s">
         <v>30</v>
       </c>
       <c r="AR11" s="53"/>
@@ -6732,15 +6703,15 @@
     </row>
     <row r="12" spans="1:70" ht="21" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="255"/>
+      <c r="B12" s="241"/>
       <c r="C12" s="45"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="291" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="258"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="244" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="245"/>
       <c r="I12" s="91"/>
       <c r="J12" s="165"/>
       <c r="K12" s="59"/>
@@ -6775,7 +6746,7 @@
       <c r="AN12" s="59"/>
       <c r="AO12" s="59"/>
       <c r="AP12" s="62"/>
-      <c r="AQ12" s="271"/>
+      <c r="AQ12" s="281"/>
       <c r="AR12" s="63"/>
       <c r="AS12" s="63"/>
       <c r="AT12" s="63"/>
@@ -6806,15 +6777,15 @@
     </row>
     <row r="13" spans="1:70" ht="21" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="255"/>
+      <c r="B13" s="241"/>
       <c r="C13" s="45"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="305" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="295"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="291" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="249"/>
       <c r="I13" s="167"/>
       <c r="J13" s="168"/>
       <c r="K13" s="169"/>
@@ -6849,7 +6820,7 @@
       <c r="AN13" s="171"/>
       <c r="AO13" s="171"/>
       <c r="AP13" s="177"/>
-      <c r="AQ13" s="271"/>
+      <c r="AQ13" s="281"/>
       <c r="AR13" s="178"/>
       <c r="AS13" s="178"/>
       <c r="AT13" s="178"/>
@@ -6880,15 +6851,15 @@
     </row>
     <row r="14" spans="1:70" ht="21" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="241"/>
       <c r="C14" s="67"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="293"/>
-      <c r="G14" s="304" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="295"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="290" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="249"/>
       <c r="I14" s="68"/>
       <c r="J14" s="69"/>
       <c r="K14" s="70"/>
@@ -6923,7 +6894,7 @@
       <c r="AN14" s="71"/>
       <c r="AO14" s="71"/>
       <c r="AP14" s="75"/>
-      <c r="AQ14" s="271"/>
+      <c r="AQ14" s="281"/>
       <c r="AR14" s="76"/>
       <c r="AS14" s="76"/>
       <c r="AT14" s="76"/>
@@ -6954,15 +6925,15 @@
     </row>
     <row r="15" spans="1:70" ht="21" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="284">
+      <c r="B15" s="262">
         <v>2</v>
       </c>
       <c r="C15" s="45"/>
-      <c r="D15" s="296"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="258"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="245"/>
       <c r="I15" s="81"/>
       <c r="J15" s="82"/>
       <c r="K15" s="83"/>
@@ -6997,7 +6968,7 @@
       <c r="AN15" s="83"/>
       <c r="AO15" s="83"/>
       <c r="AP15" s="86"/>
-      <c r="AQ15" s="271"/>
+      <c r="AQ15" s="281"/>
       <c r="AR15" s="87"/>
       <c r="AS15" s="87"/>
       <c r="AT15" s="87"/>
@@ -7028,13 +6999,13 @@
     </row>
     <row r="16" spans="1:70" ht="21" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="255"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="45"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="255"/>
-      <c r="F16" s="255"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="258"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="245"/>
       <c r="I16" s="91"/>
       <c r="J16" s="92"/>
       <c r="K16" s="93"/>
@@ -7069,7 +7040,7 @@
       <c r="AN16" s="93"/>
       <c r="AO16" s="93"/>
       <c r="AP16" s="96"/>
-      <c r="AQ16" s="271"/>
+      <c r="AQ16" s="281"/>
       <c r="AR16" s="97"/>
       <c r="AS16" s="97"/>
       <c r="AT16" s="97"/>
@@ -7100,13 +7071,13 @@
     </row>
     <row r="17" spans="1:70" ht="21" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="255"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="45"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="258"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="245"/>
       <c r="I17" s="91"/>
       <c r="J17" s="92"/>
       <c r="K17" s="93"/>
@@ -7141,7 +7112,7 @@
       <c r="AN17" s="93"/>
       <c r="AO17" s="93"/>
       <c r="AP17" s="96"/>
-      <c r="AQ17" s="271"/>
+      <c r="AQ17" s="281"/>
       <c r="AR17" s="97"/>
       <c r="AS17" s="97"/>
       <c r="AT17" s="97"/>
@@ -7172,13 +7143,13 @@
     </row>
     <row r="18" spans="1:70" ht="21" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="241"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="255"/>
-      <c r="G18" s="291"/>
-      <c r="H18" s="258"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="245"/>
       <c r="I18" s="91"/>
       <c r="J18" s="92"/>
       <c r="K18" s="93"/>
@@ -7213,7 +7184,7 @@
       <c r="AN18" s="93"/>
       <c r="AO18" s="93"/>
       <c r="AP18" s="96"/>
-      <c r="AQ18" s="271"/>
+      <c r="AQ18" s="281"/>
       <c r="AR18" s="97"/>
       <c r="AS18" s="97"/>
       <c r="AT18" s="97"/>
@@ -7244,13 +7215,13 @@
     </row>
     <row r="19" spans="1:70" ht="21" customHeight="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="255"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="45"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="258"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="245"/>
       <c r="I19" s="100"/>
       <c r="J19" s="101"/>
       <c r="K19" s="102"/>
@@ -7285,7 +7256,7 @@
       <c r="AN19" s="102"/>
       <c r="AO19" s="102"/>
       <c r="AP19" s="105"/>
-      <c r="AQ19" s="271"/>
+      <c r="AQ19" s="281"/>
       <c r="AR19" s="97"/>
       <c r="AS19" s="97"/>
       <c r="AT19" s="97"/>
@@ -7316,13 +7287,13 @@
     </row>
     <row r="20" spans="1:70" ht="21" customHeight="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="255"/>
+      <c r="B20" s="241"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="297"/>
-      <c r="F20" s="297"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="299"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="253"/>
       <c r="I20" s="107"/>
       <c r="J20" s="108"/>
       <c r="K20" s="109"/>
@@ -7357,7 +7328,7 @@
       <c r="AN20" s="109"/>
       <c r="AO20" s="109"/>
       <c r="AP20" s="112"/>
-      <c r="AQ20" s="271"/>
+      <c r="AQ20" s="281"/>
       <c r="AR20" s="113"/>
       <c r="AS20" s="113"/>
       <c r="AT20" s="113"/>
@@ -7388,15 +7359,15 @@
     </row>
     <row r="21" spans="1:70" ht="21" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="285">
+      <c r="B21" s="263">
         <v>3</v>
       </c>
       <c r="C21" s="45"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="258"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="264"/>
+      <c r="H21" s="245"/>
       <c r="I21" s="116"/>
       <c r="J21" s="117"/>
       <c r="K21" s="118"/>
@@ -7431,7 +7402,7 @@
       <c r="AN21" s="118"/>
       <c r="AO21" s="118"/>
       <c r="AP21" s="121"/>
-      <c r="AQ21" s="271"/>
+      <c r="AQ21" s="281"/>
       <c r="AR21" s="122"/>
       <c r="AS21" s="122"/>
       <c r="AT21" s="122"/>
@@ -7462,13 +7433,13 @@
     </row>
     <row r="22" spans="1:70" ht="21" customHeight="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="45"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="258"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="245"/>
       <c r="I22" s="125"/>
       <c r="J22" s="126"/>
       <c r="K22" s="127"/>
@@ -7503,7 +7474,7 @@
       <c r="AN22" s="127"/>
       <c r="AO22" s="127"/>
       <c r="AP22" s="130"/>
-      <c r="AQ22" s="271"/>
+      <c r="AQ22" s="281"/>
       <c r="AR22" s="131"/>
       <c r="AS22" s="131"/>
       <c r="AT22" s="131"/>
@@ -7534,13 +7505,13 @@
     </row>
     <row r="23" spans="1:70" ht="21" customHeight="1">
       <c r="A23" s="24"/>
-      <c r="B23" s="255"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="45"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="258"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="264"/>
+      <c r="H23" s="245"/>
       <c r="I23" s="125"/>
       <c r="J23" s="126"/>
       <c r="K23" s="127"/>
@@ -7575,7 +7546,7 @@
       <c r="AN23" s="127"/>
       <c r="AO23" s="127"/>
       <c r="AP23" s="130"/>
-      <c r="AQ23" s="271"/>
+      <c r="AQ23" s="281"/>
       <c r="AR23" s="131"/>
       <c r="AS23" s="131"/>
       <c r="AT23" s="131"/>
@@ -7606,13 +7577,13 @@
     </row>
     <row r="24" spans="1:70" ht="21" customHeight="1">
       <c r="A24" s="24"/>
-      <c r="B24" s="255"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="134"/>
-      <c r="D24" s="278"/>
-      <c r="E24" s="278"/>
-      <c r="F24" s="278"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="288"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="265"/>
+      <c r="H24" s="266"/>
       <c r="I24" s="135"/>
       <c r="J24" s="136"/>
       <c r="K24" s="137"/>
@@ -7647,7 +7618,7 @@
       <c r="AN24" s="137"/>
       <c r="AO24" s="137"/>
       <c r="AP24" s="140"/>
-      <c r="AQ24" s="271"/>
+      <c r="AQ24" s="281"/>
       <c r="AR24" s="141"/>
       <c r="AS24" s="141"/>
       <c r="AT24" s="141"/>
@@ -7678,15 +7649,15 @@
     </row>
     <row r="25" spans="1:70" ht="21" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="289">
+      <c r="B25" s="267">
         <v>4</v>
       </c>
       <c r="C25" s="45"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="258"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="245"/>
       <c r="I25" s="116"/>
       <c r="J25" s="117"/>
       <c r="K25" s="118"/>
@@ -7721,7 +7692,7 @@
       <c r="AN25" s="118"/>
       <c r="AO25" s="118"/>
       <c r="AP25" s="121"/>
-      <c r="AQ25" s="271"/>
+      <c r="AQ25" s="281"/>
       <c r="AR25" s="122"/>
       <c r="AS25" s="122"/>
       <c r="AT25" s="122"/>
@@ -7752,13 +7723,13 @@
     </row>
     <row r="26" spans="1:70" ht="21" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="255"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="45"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="281"/>
-      <c r="H26" s="258"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="245"/>
       <c r="I26" s="125"/>
       <c r="J26" s="126"/>
       <c r="K26" s="127"/>
@@ -7793,7 +7764,7 @@
       <c r="AN26" s="127"/>
       <c r="AO26" s="127"/>
       <c r="AP26" s="130"/>
-      <c r="AQ26" s="271"/>
+      <c r="AQ26" s="281"/>
       <c r="AR26" s="131"/>
       <c r="AS26" s="131"/>
       <c r="AT26" s="131"/>
@@ -7824,13 +7795,13 @@
     </row>
     <row r="27" spans="1:70" ht="21" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="255"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="258"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="245"/>
       <c r="I27" s="125"/>
       <c r="J27" s="126"/>
       <c r="K27" s="127"/>
@@ -7865,7 +7836,7 @@
       <c r="AN27" s="127"/>
       <c r="AO27" s="127"/>
       <c r="AP27" s="130"/>
-      <c r="AQ27" s="271"/>
+      <c r="AQ27" s="281"/>
       <c r="AR27" s="131"/>
       <c r="AS27" s="131"/>
       <c r="AT27" s="131"/>
@@ -7896,13 +7867,13 @@
     </row>
     <row r="28" spans="1:70" ht="21" customHeight="1">
       <c r="A28" s="24"/>
-      <c r="B28" s="255"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="144"/>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="280"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="283"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="258"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="261"/>
       <c r="I28" s="145"/>
       <c r="J28" s="146"/>
       <c r="K28" s="147"/>
@@ -7937,7 +7908,7 @@
       <c r="AN28" s="147"/>
       <c r="AO28" s="147"/>
       <c r="AP28" s="150"/>
-      <c r="AQ28" s="271"/>
+      <c r="AQ28" s="281"/>
       <c r="AR28" s="151"/>
       <c r="AS28" s="151"/>
       <c r="AT28" s="151"/>
@@ -7968,15 +7939,15 @@
     </row>
     <row r="29" spans="1:70" ht="21" customHeight="1">
       <c r="A29" s="24"/>
-      <c r="B29" s="254">
+      <c r="B29" s="286">
         <v>5</v>
       </c>
       <c r="C29" s="45"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="258"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="245"/>
       <c r="I29" s="116"/>
       <c r="J29" s="117"/>
       <c r="K29" s="118"/>
@@ -8011,7 +7982,7 @@
       <c r="AN29" s="118"/>
       <c r="AO29" s="118"/>
       <c r="AP29" s="121"/>
-      <c r="AQ29" s="271"/>
+      <c r="AQ29" s="281"/>
       <c r="AR29" s="122"/>
       <c r="AS29" s="122"/>
       <c r="AT29" s="122"/>
@@ -8042,13 +8013,13 @@
     </row>
     <row r="30" spans="1:70" ht="21" customHeight="1">
       <c r="A30" s="24"/>
-      <c r="B30" s="255"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="45"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="257"/>
-      <c r="H30" s="258"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="288"/>
+      <c r="H30" s="245"/>
       <c r="I30" s="125"/>
       <c r="J30" s="126"/>
       <c r="K30" s="127"/>
@@ -8083,7 +8054,7 @@
       <c r="AN30" s="127"/>
       <c r="AO30" s="127"/>
       <c r="AP30" s="130"/>
-      <c r="AQ30" s="271"/>
+      <c r="AQ30" s="281"/>
       <c r="AR30" s="131"/>
       <c r="AS30" s="131"/>
       <c r="AT30" s="131"/>
@@ -8114,13 +8085,13 @@
     </row>
     <row r="31" spans="1:70" ht="21" customHeight="1">
       <c r="A31" s="24"/>
-      <c r="B31" s="255"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="45"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="258"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="245"/>
       <c r="I31" s="125"/>
       <c r="J31" s="126"/>
       <c r="K31" s="127"/>
@@ -8155,7 +8126,7 @@
       <c r="AN31" s="127"/>
       <c r="AO31" s="127"/>
       <c r="AP31" s="130"/>
-      <c r="AQ31" s="271"/>
+      <c r="AQ31" s="281"/>
       <c r="AR31" s="131"/>
       <c r="AS31" s="131"/>
       <c r="AT31" s="131"/>
@@ -8618,11 +8589,43 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:F14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AQ11:AQ31"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AF2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
     <mergeCell ref="D25:F28"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
@@ -8638,43 +8641,11 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="D15:F20"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AF2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AQ11:AQ31"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:F14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8779,43 +8750,43 @@
     </row>
     <row r="2" spans="1:70" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="272" t="s">
+      <c r="B2" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="274" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="275" t="s">
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
@@ -8935,35 +8906,35 @@
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="267" t="s">
+      <c r="I4" s="272" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="276" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="268"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="268"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="268"/>
-      <c r="X4" s="268"/>
-      <c r="Y4" s="268"/>
-      <c r="Z4" s="268"/>
-      <c r="AA4" s="268"/>
-      <c r="AB4" s="268"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="274" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="273"/>
+      <c r="R4" s="273"/>
+      <c r="S4" s="273"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="273"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="273"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="273"/>
+      <c r="Z4" s="273"/>
+      <c r="AA4" s="273"/>
+      <c r="AB4" s="273"/>
       <c r="AC4" s="19"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -9015,34 +8986,34 @@
       <c r="C5" s="16"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="268"/>
-      <c r="K5" s="268"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="268"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="269">
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="275">
         <v>44390</v>
       </c>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
       <c r="AB5" s="22"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="1"/>
@@ -9244,74 +9215,74 @@
         <v>10</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="264" t="s">
+      <c r="I8" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="255"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="255"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="264" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
+      <c r="W8" s="285"/>
+      <c r="X8" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="255"/>
-      <c r="AF8" s="255"/>
-      <c r="AG8" s="255"/>
-      <c r="AH8" s="255"/>
-      <c r="AI8" s="255"/>
-      <c r="AJ8" s="255"/>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="264" t="s">
+      <c r="Y8" s="241"/>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
+      <c r="AD8" s="241"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="241"/>
+      <c r="AJ8" s="241"/>
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="285"/>
+      <c r="AM8" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="AN8" s="255"/>
-      <c r="AO8" s="255"/>
-      <c r="AP8" s="255"/>
-      <c r="AQ8" s="255"/>
-      <c r="AR8" s="255"/>
-      <c r="AS8" s="255"/>
-      <c r="AT8" s="255"/>
-      <c r="AU8" s="255"/>
-      <c r="AV8" s="255"/>
-      <c r="AW8" s="255"/>
-      <c r="AX8" s="255"/>
-      <c r="AY8" s="255"/>
-      <c r="AZ8" s="255"/>
-      <c r="BA8" s="265"/>
-      <c r="BB8" s="264" t="s">
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="241"/>
+      <c r="AQ8" s="241"/>
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="241"/>
+      <c r="AT8" s="241"/>
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="241"/>
+      <c r="AX8" s="241"/>
+      <c r="AY8" s="241"/>
+      <c r="AZ8" s="241"/>
+      <c r="BA8" s="285"/>
+      <c r="BB8" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="BC8" s="255"/>
-      <c r="BD8" s="255"/>
-      <c r="BE8" s="255"/>
-      <c r="BF8" s="255"/>
-      <c r="BG8" s="255"/>
-      <c r="BH8" s="255"/>
-      <c r="BI8" s="255"/>
-      <c r="BJ8" s="255"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="255"/>
-      <c r="BM8" s="255"/>
-      <c r="BN8" s="255"/>
-      <c r="BO8" s="255"/>
-      <c r="BP8" s="265"/>
+      <c r="BC8" s="241"/>
+      <c r="BD8" s="241"/>
+      <c r="BE8" s="241"/>
+      <c r="BF8" s="241"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="241"/>
+      <c r="BI8" s="241"/>
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="241"/>
+      <c r="BL8" s="241"/>
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="241"/>
+      <c r="BO8" s="241"/>
+      <c r="BP8" s="285"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24"/>
     </row>
@@ -9324,82 +9295,82 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="266" t="s">
+      <c r="I9" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260"/>
-      <c r="L9" s="260"/>
-      <c r="M9" s="259" t="s">
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="260"/>
-      <c r="O9" s="260"/>
-      <c r="P9" s="260"/>
-      <c r="Q9" s="260"/>
+      <c r="N9" s="277"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
       <c r="R9" s="183"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="260"/>
-      <c r="AE9" s="260"/>
-      <c r="AF9" s="260"/>
-      <c r="AG9" s="260"/>
-      <c r="AH9" s="259"/>
-      <c r="AI9" s="260"/>
-      <c r="AJ9" s="260"/>
-      <c r="AK9" s="260"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="266" t="s">
+      <c r="S9" s="283"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="282"/>
+      <c r="Y9" s="277"/>
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="283"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="276"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="277"/>
+      <c r="AK9" s="277"/>
+      <c r="AL9" s="278"/>
+      <c r="AM9" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="260"/>
-      <c r="AO9" s="260"/>
-      <c r="AP9" s="260"/>
-      <c r="AQ9" s="260"/>
-      <c r="AR9" s="259" t="s">
+      <c r="AN9" s="277"/>
+      <c r="AO9" s="277"/>
+      <c r="AP9" s="277"/>
+      <c r="AQ9" s="277"/>
+      <c r="AR9" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="AS9" s="260"/>
-      <c r="AT9" s="260"/>
-      <c r="AU9" s="260"/>
-      <c r="AV9" s="260"/>
-      <c r="AW9" s="261" t="s">
+      <c r="AS9" s="277"/>
+      <c r="AT9" s="277"/>
+      <c r="AU9" s="277"/>
+      <c r="AV9" s="277"/>
+      <c r="AW9" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AX9" s="260"/>
-      <c r="AY9" s="260"/>
-      <c r="AZ9" s="260"/>
-      <c r="BA9" s="262"/>
-      <c r="BB9" s="263" t="s">
+      <c r="AX9" s="277"/>
+      <c r="AY9" s="277"/>
+      <c r="AZ9" s="277"/>
+      <c r="BA9" s="278"/>
+      <c r="BB9" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="BC9" s="260"/>
-      <c r="BD9" s="260"/>
-      <c r="BE9" s="260"/>
-      <c r="BF9" s="260"/>
-      <c r="BG9" s="261" t="s">
+      <c r="BC9" s="277"/>
+      <c r="BD9" s="277"/>
+      <c r="BE9" s="277"/>
+      <c r="BF9" s="277"/>
+      <c r="BG9" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="260"/>
-      <c r="BI9" s="260"/>
-      <c r="BJ9" s="260"/>
-      <c r="BK9" s="260"/>
-      <c r="BL9" s="259" t="s">
+      <c r="BH9" s="277"/>
+      <c r="BI9" s="277"/>
+      <c r="BJ9" s="277"/>
+      <c r="BK9" s="277"/>
+      <c r="BL9" s="276" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="260"/>
-      <c r="BN9" s="260"/>
-      <c r="BO9" s="260"/>
-      <c r="BP9" s="262"/>
+      <c r="BM9" s="277"/>
+      <c r="BN9" s="277"/>
+      <c r="BO9" s="277"/>
+      <c r="BP9" s="278"/>
       <c r="BQ9" s="30"/>
       <c r="BR9" s="30"/>
     </row>
@@ -9407,15 +9378,15 @@
       <c r="A10" s="34"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="301" t="s">
+      <c r="D10" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="241"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="303" t="s">
+      <c r="G10" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="255"/>
+      <c r="H10" s="241"/>
       <c r="I10" s="37">
         <v>26</v>
       </c>
@@ -9504,10 +9475,10 @@
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="300" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="255"/>
+      <c r="G11" s="254" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="241"/>
       <c r="I11" s="184"/>
       <c r="J11" s="185"/>
       <c r="K11" s="186"/>
@@ -9572,19 +9543,19 @@
     </row>
     <row r="12" spans="1:70" ht="21" customHeight="1">
       <c r="A12" s="43"/>
-      <c r="B12" s="290">
+      <c r="B12" s="243">
         <v>1</v>
       </c>
       <c r="C12" s="45"/>
-      <c r="D12" s="292" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="300" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="258"/>
+      <c r="D12" s="246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="254" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="245"/>
       <c r="I12" s="194"/>
       <c r="J12" s="195"/>
       <c r="K12" s="196"/>
@@ -9594,7 +9565,7 @@
       <c r="O12" s="196"/>
       <c r="P12" s="196"/>
       <c r="Q12" s="196"/>
-      <c r="R12" s="270" t="s">
+      <c r="R12" s="280" t="s">
         <v>30</v>
       </c>
       <c r="S12" s="196"/>
@@ -9651,15 +9622,15 @@
     </row>
     <row r="13" spans="1:70" ht="21" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="255"/>
+      <c r="B13" s="241"/>
       <c r="C13" s="45"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="300" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="258"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="254" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="245"/>
       <c r="I13" s="81"/>
       <c r="J13" s="82"/>
       <c r="K13" s="202"/>
@@ -9669,7 +9640,7 @@
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="203"/>
-      <c r="R13" s="271"/>
+      <c r="R13" s="281"/>
       <c r="S13" s="204"/>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
@@ -9724,15 +9695,15 @@
     </row>
     <row r="14" spans="1:70" ht="21" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="241"/>
       <c r="C14" s="45"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="255"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="300" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="258"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="254" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="245"/>
       <c r="I14" s="91"/>
       <c r="J14" s="92"/>
       <c r="K14" s="209"/>
@@ -9742,7 +9713,7 @@
       <c r="O14" s="93"/>
       <c r="P14" s="93"/>
       <c r="Q14" s="210"/>
-      <c r="R14" s="271"/>
+      <c r="R14" s="281"/>
       <c r="S14" s="211"/>
       <c r="T14" s="93"/>
       <c r="U14" s="93"/>
@@ -9797,15 +9768,15 @@
     </row>
     <row r="15" spans="1:70" ht="21" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="255"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="300" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="258"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="254" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="245"/>
       <c r="I15" s="91"/>
       <c r="J15" s="92"/>
       <c r="K15" s="93"/>
@@ -9815,7 +9786,7 @@
       <c r="O15" s="93"/>
       <c r="P15" s="93"/>
       <c r="Q15" s="210"/>
-      <c r="R15" s="271"/>
+      <c r="R15" s="281"/>
       <c r="S15" s="211"/>
       <c r="T15" s="93"/>
       <c r="U15" s="93"/>
@@ -9870,15 +9841,15 @@
     </row>
     <row r="16" spans="1:70" ht="21" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="255"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="45"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="255"/>
-      <c r="F16" s="255"/>
-      <c r="G16" s="294" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="295"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="248" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="249"/>
       <c r="I16" s="91"/>
       <c r="J16" s="92"/>
       <c r="K16" s="93"/>
@@ -9888,7 +9859,7 @@
       <c r="O16" s="93"/>
       <c r="P16" s="93"/>
       <c r="Q16" s="210"/>
-      <c r="R16" s="271"/>
+      <c r="R16" s="281"/>
       <c r="S16" s="211"/>
       <c r="T16" s="93"/>
       <c r="U16" s="93"/>
@@ -9943,15 +9914,15 @@
     </row>
     <row r="17" spans="1:70" ht="21" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="255"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="67"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="294" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="295"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="248" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="249"/>
       <c r="I17" s="107"/>
       <c r="J17" s="108"/>
       <c r="K17" s="109"/>
@@ -9961,7 +9932,7 @@
       <c r="O17" s="109"/>
       <c r="P17" s="109"/>
       <c r="Q17" s="214"/>
-      <c r="R17" s="271"/>
+      <c r="R17" s="281"/>
       <c r="S17" s="215"/>
       <c r="T17" s="109"/>
       <c r="U17" s="109"/>
@@ -10021,10 +9992,10 @@
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
-      <c r="G18" s="291" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="258"/>
+      <c r="G18" s="244" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="245"/>
       <c r="I18" s="91"/>
       <c r="J18" s="92"/>
       <c r="K18" s="93"/>
@@ -10034,7 +10005,7 @@
       <c r="O18" s="93"/>
       <c r="P18" s="93"/>
       <c r="Q18" s="210"/>
-      <c r="R18" s="271"/>
+      <c r="R18" s="281"/>
       <c r="S18" s="211"/>
       <c r="T18" s="93"/>
       <c r="U18" s="93"/>
@@ -10089,19 +10060,19 @@
     </row>
     <row r="19" spans="1:70" ht="21" customHeight="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="284">
+      <c r="B19" s="262">
         <v>2</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="296" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="291" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="258"/>
+      <c r="D19" s="250" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="244" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="245"/>
       <c r="I19" s="91"/>
       <c r="J19" s="92"/>
       <c r="K19" s="93"/>
@@ -10111,7 +10082,7 @@
       <c r="O19" s="93"/>
       <c r="P19" s="93"/>
       <c r="Q19" s="210"/>
-      <c r="R19" s="271"/>
+      <c r="R19" s="281"/>
       <c r="S19" s="211"/>
       <c r="T19" s="93"/>
       <c r="U19" s="93"/>
@@ -10166,15 +10137,15 @@
     </row>
     <row r="20" spans="1:70" ht="21" customHeight="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="255"/>
+      <c r="B20" s="241"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="291" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="258"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="245"/>
       <c r="I20" s="91"/>
       <c r="J20" s="92"/>
       <c r="K20" s="93"/>
@@ -10184,7 +10155,7 @@
       <c r="O20" s="227"/>
       <c r="P20" s="93"/>
       <c r="Q20" s="210"/>
-      <c r="R20" s="271"/>
+      <c r="R20" s="281"/>
       <c r="S20" s="211"/>
       <c r="T20" s="93"/>
       <c r="U20" s="93"/>
@@ -10239,15 +10210,15 @@
     </row>
     <row r="21" spans="1:70" ht="21" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="255"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="45"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="291" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="258"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="244" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="245"/>
       <c r="I21" s="91"/>
       <c r="J21" s="92"/>
       <c r="K21" s="93"/>
@@ -10257,7 +10228,7 @@
       <c r="O21" s="93"/>
       <c r="P21" s="227"/>
       <c r="Q21" s="210"/>
-      <c r="R21" s="271"/>
+      <c r="R21" s="281"/>
       <c r="S21" s="211"/>
       <c r="T21" s="93"/>
       <c r="U21" s="93"/>
@@ -10312,15 +10283,15 @@
     </row>
     <row r="22" spans="1:70" ht="21" customHeight="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="45"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="291" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="258"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="244" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="245"/>
       <c r="I22" s="91"/>
       <c r="J22" s="92"/>
       <c r="K22" s="93"/>
@@ -10330,7 +10301,7 @@
       <c r="O22" s="93"/>
       <c r="P22" s="93"/>
       <c r="Q22" s="228"/>
-      <c r="R22" s="271"/>
+      <c r="R22" s="281"/>
       <c r="S22" s="211"/>
       <c r="T22" s="93"/>
       <c r="U22" s="93"/>
@@ -10385,13 +10356,13 @@
     </row>
     <row r="23" spans="1:70" ht="21" customHeight="1">
       <c r="A23" s="24"/>
-      <c r="B23" s="255"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="45"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="258"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="245"/>
       <c r="I23" s="100"/>
       <c r="J23" s="101"/>
       <c r="K23" s="102"/>
@@ -10401,7 +10372,7 @@
       <c r="O23" s="102"/>
       <c r="P23" s="102"/>
       <c r="Q23" s="229"/>
-      <c r="R23" s="271"/>
+      <c r="R23" s="281"/>
       <c r="S23" s="230"/>
       <c r="T23" s="102"/>
       <c r="U23" s="102"/>
@@ -10456,13 +10427,13 @@
     </row>
     <row r="24" spans="1:70" ht="21" customHeight="1">
       <c r="A24" s="24"/>
-      <c r="B24" s="255"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="297"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="299"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="253"/>
       <c r="I24" s="107"/>
       <c r="J24" s="108"/>
       <c r="K24" s="109"/>
@@ -10472,7 +10443,7 @@
       <c r="O24" s="109"/>
       <c r="P24" s="109"/>
       <c r="Q24" s="214"/>
-      <c r="R24" s="271"/>
+      <c r="R24" s="281"/>
       <c r="S24" s="215"/>
       <c r="T24" s="109"/>
       <c r="U24" s="109"/>
@@ -10527,15 +10498,15 @@
     </row>
     <row r="25" spans="1:70" ht="21" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="285">
+      <c r="B25" s="263">
         <v>3</v>
       </c>
       <c r="C25" s="45"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="258"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="245"/>
       <c r="I25" s="116"/>
       <c r="J25" s="117"/>
       <c r="K25" s="118"/>
@@ -10545,7 +10516,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
       <c r="Q25" s="231"/>
-      <c r="R25" s="271"/>
+      <c r="R25" s="281"/>
       <c r="S25" s="232"/>
       <c r="T25" s="118"/>
       <c r="U25" s="118"/>
@@ -10600,13 +10571,13 @@
     </row>
     <row r="26" spans="1:70" ht="21" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="255"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="45"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="258"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="264"/>
+      <c r="H26" s="245"/>
       <c r="I26" s="125"/>
       <c r="J26" s="126"/>
       <c r="K26" s="127"/>
@@ -10616,7 +10587,7 @@
       <c r="O26" s="127"/>
       <c r="P26" s="127"/>
       <c r="Q26" s="233"/>
-      <c r="R26" s="271"/>
+      <c r="R26" s="281"/>
       <c r="S26" s="234"/>
       <c r="T26" s="127"/>
       <c r="U26" s="127"/>
@@ -10671,13 +10642,13 @@
     </row>
     <row r="27" spans="1:70" ht="21" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="255"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="258"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="245"/>
       <c r="I27" s="125"/>
       <c r="J27" s="126"/>
       <c r="K27" s="127"/>
@@ -10687,7 +10658,7 @@
       <c r="O27" s="127"/>
       <c r="P27" s="127"/>
       <c r="Q27" s="233"/>
-      <c r="R27" s="271"/>
+      <c r="R27" s="281"/>
       <c r="S27" s="234"/>
       <c r="T27" s="127"/>
       <c r="U27" s="127"/>
@@ -10742,13 +10713,13 @@
     </row>
     <row r="28" spans="1:70" ht="21" customHeight="1">
       <c r="A28" s="24"/>
-      <c r="B28" s="255"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="134"/>
-      <c r="D28" s="278"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="288"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="266"/>
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
@@ -10758,7 +10729,7 @@
       <c r="O28" s="137"/>
       <c r="P28" s="137"/>
       <c r="Q28" s="235"/>
-      <c r="R28" s="271"/>
+      <c r="R28" s="281"/>
       <c r="S28" s="236"/>
       <c r="T28" s="137"/>
       <c r="U28" s="137"/>
@@ -10813,15 +10784,15 @@
     </row>
     <row r="29" spans="1:70" ht="21" customHeight="1">
       <c r="A29" s="24"/>
-      <c r="B29" s="289">
+      <c r="B29" s="267">
         <v>4</v>
       </c>
       <c r="C29" s="45"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="255"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="281"/>
-      <c r="H29" s="258"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="245"/>
       <c r="I29" s="116"/>
       <c r="J29" s="117"/>
       <c r="K29" s="118"/>
@@ -10831,7 +10802,7 @@
       <c r="O29" s="118"/>
       <c r="P29" s="118"/>
       <c r="Q29" s="231"/>
-      <c r="R29" s="271"/>
+      <c r="R29" s="281"/>
       <c r="S29" s="232"/>
       <c r="T29" s="118"/>
       <c r="U29" s="118"/>
@@ -10886,13 +10857,13 @@
     </row>
     <row r="30" spans="1:70" ht="21" customHeight="1">
       <c r="A30" s="24"/>
-      <c r="B30" s="255"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="45"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="281"/>
-      <c r="H30" s="258"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="245"/>
       <c r="I30" s="125"/>
       <c r="J30" s="126"/>
       <c r="K30" s="127"/>
@@ -10902,7 +10873,7 @@
       <c r="O30" s="127"/>
       <c r="P30" s="127"/>
       <c r="Q30" s="233"/>
-      <c r="R30" s="271"/>
+      <c r="R30" s="281"/>
       <c r="S30" s="234"/>
       <c r="T30" s="127"/>
       <c r="U30" s="127"/>
@@ -10957,13 +10928,13 @@
     </row>
     <row r="31" spans="1:70" ht="21" customHeight="1">
       <c r="A31" s="24"/>
-      <c r="B31" s="255"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="45"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="281"/>
-      <c r="H31" s="258"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="245"/>
       <c r="I31" s="125"/>
       <c r="J31" s="126"/>
       <c r="K31" s="127"/>
@@ -10973,7 +10944,7 @@
       <c r="O31" s="127"/>
       <c r="P31" s="127"/>
       <c r="Q31" s="233"/>
-      <c r="R31" s="271"/>
+      <c r="R31" s="281"/>
       <c r="S31" s="234"/>
       <c r="T31" s="127"/>
       <c r="U31" s="127"/>
@@ -11028,13 +10999,13 @@
     </row>
     <row r="32" spans="1:70" ht="21" customHeight="1">
       <c r="A32" s="24"/>
-      <c r="B32" s="255"/>
+      <c r="B32" s="241"/>
       <c r="C32" s="144"/>
-      <c r="D32" s="280"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="280"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="283"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="261"/>
       <c r="I32" s="145"/>
       <c r="J32" s="146"/>
       <c r="K32" s="147"/>
@@ -11044,7 +11015,7 @@
       <c r="O32" s="147"/>
       <c r="P32" s="147"/>
       <c r="Q32" s="237"/>
-      <c r="R32" s="271"/>
+      <c r="R32" s="281"/>
       <c r="S32" s="238"/>
       <c r="T32" s="147"/>
       <c r="U32" s="147"/>
@@ -11099,15 +11070,15 @@
     </row>
     <row r="33" spans="1:70" ht="21" customHeight="1">
       <c r="A33" s="24"/>
-      <c r="B33" s="254">
+      <c r="B33" s="286">
         <v>5</v>
       </c>
       <c r="C33" s="45"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="258"/>
+      <c r="D33" s="287"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="288"/>
+      <c r="H33" s="245"/>
       <c r="I33" s="116"/>
       <c r="J33" s="117"/>
       <c r="K33" s="118"/>
@@ -11117,7 +11088,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
       <c r="Q33" s="231"/>
-      <c r="R33" s="271"/>
+      <c r="R33" s="281"/>
       <c r="S33" s="232"/>
       <c r="T33" s="118"/>
       <c r="U33" s="118"/>
@@ -11172,13 +11143,13 @@
     </row>
     <row r="34" spans="1:70" ht="21" customHeight="1">
       <c r="A34" s="24"/>
-      <c r="B34" s="255"/>
+      <c r="B34" s="241"/>
       <c r="C34" s="45"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="257"/>
-      <c r="H34" s="258"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="288"/>
+      <c r="H34" s="245"/>
       <c r="I34" s="125"/>
       <c r="J34" s="126"/>
       <c r="K34" s="127"/>
@@ -11188,7 +11159,7 @@
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="233"/>
-      <c r="R34" s="271"/>
+      <c r="R34" s="281"/>
       <c r="S34" s="234"/>
       <c r="T34" s="127"/>
       <c r="U34" s="127"/>
@@ -11243,13 +11214,13 @@
     </row>
     <row r="35" spans="1:70" ht="21" customHeight="1">
       <c r="A35" s="24"/>
-      <c r="B35" s="255"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="255"/>
-      <c r="G35" s="257"/>
-      <c r="H35" s="258"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="288"/>
+      <c r="H35" s="245"/>
       <c r="I35" s="125"/>
       <c r="J35" s="126"/>
       <c r="K35" s="127"/>
@@ -11259,7 +11230,7 @@
       <c r="O35" s="127"/>
       <c r="P35" s="127"/>
       <c r="Q35" s="233"/>
-      <c r="R35" s="271"/>
+      <c r="R35" s="281"/>
       <c r="S35" s="234"/>
       <c r="T35" s="127"/>
       <c r="U35" s="127"/>
@@ -11745,6 +11716,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D12:F17"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AF2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="R12:R35"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="D33:F35"/>
     <mergeCell ref="G23:H23"/>
@@ -11761,51 +11777,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="R12:R35"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AF2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="D25:F28"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
